--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
@@ -16,6 +16,8 @@
     <sheet name="要件定義" sheetId="2" r:id="rId2"/>
     <sheet name="コーヒーチケット集計" sheetId="3" r:id="rId3"/>
     <sheet name="Message" sheetId="4" r:id="rId4"/>
+    <sheet name="簡易画面イメージ" sheetId="5" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
   <si>
     <t>コーヒーチケット集計</t>
     <rPh sb="8" eb="10">
@@ -291,30 +293,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>ドルチェグスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バリスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チケット消費数</t>
     <rPh sb="4" eb="6">
       <t>ショウヒ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入額</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -973,10 +957,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Message Type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1171,6 +1151,474 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー月額料金</t>
+    <rPh sb="4" eb="6">
+      <t>ゲツガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット消費数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー月額料金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*5)</t>
+  </si>
+  <si>
+    <t>今月度使用料金</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(今月度使用料金表示テキストボックス)</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月度使用チケット枚数</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(今月度使用チケット枚数表示テキストボックス)</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月使用した料金を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月使用したチケット枚数を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果表示</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　(*4）今月度使用料金について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)金額の表示</t>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額は先頭に\を付与し、カンマ区切りで表示する。</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　(*5）今月度使用枚数について</t>
+    <rPh sb="12" eb="14">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)枚数の表示</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後尾に枚を付与する。</t>
+    <rPh sb="0" eb="3">
+      <t>サイコウビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂分類</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂前</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂後</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一回レビュー指摘対応</t>
+    <rPh sb="0" eb="3">
+      <t>ダイイッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+記載なし
+</t>
+    <rPh sb="9" eb="11">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+記載なし
+</t>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーチケット集計画面表</t>
+    <rPh sb="8" eb="10">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+コーヒーチケット集計画面表にチケットの使用枚数と購入金額行を追加。
+</t>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+コーヒーチケット集計画面内の一覧表を表す(*1)の表内にチケット消費数とユーザー月額料金を追加。(*4)、(*5)の詳細もシート最後尾に記載。
+</t>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>サイコウビ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+(*3)(2)の閏年の記述を追記。
+</t>
+    <rPh sb="21" eb="23">
+      <t>ウルウドシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+(*3)(3)の西暦の記述を追記。
+</t>
+    <rPh sb="21" eb="23">
+      <t>セイレキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)西暦は2017年から2100年までサポートする。(改定A-14)</t>
+    <rPh sb="3" eb="5">
+      <t>セイレキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)閏年を考慮する。(例)2月28日、2月29日(改定A-13)</t>
+    <rPh sb="3" eb="4">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ドシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1205,7 +1653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,8 +1678,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1271,13 +1725,87 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,7 +1854,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,6 +1926,1207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719ECE18-4DD7-40AB-894C-67ADCAC7676B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="876300"/>
+          <a:ext cx="5857875" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409700" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A94D67-37F1-4553-95E5-7069554DEB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="962025"/>
+          <a:ext cx="1409700" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コーヒーチケット集計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752CB794-91D5-44A1-A41F-525877DA2493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="2371725"/>
+          <a:ext cx="581025" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AC41AE-04BE-44DC-8FED-4DF5506EA9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="2371725"/>
+          <a:ext cx="304800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="255035"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BFFC0F-AA84-4291-A9CF-F73DA02BB713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="2371724"/>
+          <a:ext cx="581025" cy="255035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707329D9-0F6F-4816-BACA-19D845B5E17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="2362200"/>
+          <a:ext cx="304800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FB1DD5-ABC3-404B-AF7B-D5C685208B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="2371725"/>
+          <a:ext cx="304800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCD3181-4785-4A8E-B486-408FAA1B8ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="2362200"/>
+          <a:ext cx="304800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1CC763-824C-4FF5-B6A0-9B4A8103C0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="2362200"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E88EE5E-3D79-45F1-BB0C-468B68D49298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="2362200"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6212FC67-1838-45F0-91D3-330A509924F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="2390775"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34321D9F-A99C-4822-BD47-57BC90AC4F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="2371725"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A488E76A-F73B-45C5-9E59-E6F028E134D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="2362200"/>
+          <a:ext cx="276225" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="266192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C554F814-3E64-472F-BC7F-9B528A511C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="2362200"/>
+          <a:ext cx="276225" cy="266192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5964CD-CBC2-43E3-931C-AD40AEDEA855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="2381250"/>
+          <a:ext cx="304800" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D4D34C-D269-46F4-94E9-0A28166974C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="2362200"/>
+          <a:ext cx="485775" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2041D7CA-7C7E-4212-AD5C-B3C8C1FC5551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="1019175"/>
+          <a:ext cx="1172116" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今月度使用料金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1626727" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D887D99-F561-475A-9CC6-5FF8E1771B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="1476375"/>
+          <a:ext cx="1626727" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今月度使用チケット枚数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="790575" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C178229-A100-4099-B3AF-B5D5B373A58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="1247775"/>
+          <a:ext cx="790575" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>\999,999</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="790575" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E0484-4E0A-432B-ABFF-D3F8E5FC970C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="1714500"/>
+          <a:ext cx="790575" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>99999</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,7 +3445,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,17 +3482,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="32.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
@@ -1750,485 +3534,522 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="13">
-        <f>ROW()-11</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="13">
-        <f>ROW()-11</f>
-        <v>2</v>
+        <f>ROW()-12</f>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="13">
-        <f t="shared" ref="B14:B28" si="0">ROW()-11</f>
-        <v>3</v>
+        <f t="shared" ref="B14:B33" si="0">ROW()-12</f>
+        <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="13">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="13">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="13">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="13">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="13">
+        <f>ROW()-36</f>
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="13">
-        <f>ROW()-32</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="13">
-        <f t="shared" ref="B34:B39" si="1">ROW()-32</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="6" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="13">
+        <f t="shared" ref="B39:B44" si="1">ROW()-36</f>
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="13">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="C40" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="13">
+      <c r="F40" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="C41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="13">
+      <c r="F41" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="13">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="C43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="13">
-        <f>ROW()-32</f>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="13">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-    </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="13">
+        <f>ROW()-36</f>
+        <v>9</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -2237,114 +4058,243 @@
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C58" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="1" t="s">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C61" s="32"/>
+      <c r="D61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C62" s="32"/>
+      <c r="D62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C64" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C52" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C53" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C56" s="16"/>
-      <c r="D56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C57" s="16"/>
-      <c r="D57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C59" s="5" t="s">
-        <v>61</v>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="16"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="16"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C58:C62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,79 +4304,268 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D11" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="35.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="35.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G4" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="2" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="12.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D9" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="27">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="29">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="28"/>
+      <c r="C5" s="17">
+        <v>12</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="29">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="28"/>
+      <c r="C6" s="27">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="29">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="27"/>
+      <c r="C7" s="17">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="29">
+        <v>42859</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Desktop\機能仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1626,7 +1626,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1948,7 +1948,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719ECE18-4DD7-40AB-894C-67ADCAC7676B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{719ECE18-4DD7-40AB-894C-67ADCAC7676B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A94D67-37F1-4553-95E5-7069554DEB91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32A94D67-37F1-4553-95E5-7069554DEB91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2067,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752CB794-91D5-44A1-A41F-525877DA2493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{752CB794-91D5-44A1-A41F-525877DA2493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AC41AE-04BE-44DC-8FED-4DF5506EA9D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17AC41AE-04BE-44DC-8FED-4DF5506EA9D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BFFC0F-AA84-4291-A9CF-F73DA02BB713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66BFFC0F-AA84-4291-A9CF-F73DA02BB713}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2247,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707329D9-0F6F-4816-BACA-19D845B5E17A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{707329D9-0F6F-4816-BACA-19D845B5E17A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FB1DD5-ABC3-404B-AF7B-D5C685208B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9FB1DD5-ABC3-404B-AF7B-D5C685208B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2367,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCD3181-4785-4A8E-B486-408FAA1B8ABF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DCD3181-4785-4A8E-B486-408FAA1B8ABF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2427,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1CC763-824C-4FF5-B6A0-9B4A8103C0ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E1CC763-824C-4FF5-B6A0-9B4A8103C0ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2485,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E88EE5E-3D79-45F1-BB0C-468B68D49298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E88EE5E-3D79-45F1-BB0C-468B68D49298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2543,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6212FC67-1838-45F0-91D3-330A509924F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6212FC67-1838-45F0-91D3-330A509924F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2601,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34321D9F-A99C-4822-BD47-57BC90AC4F0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34321D9F-A99C-4822-BD47-57BC90AC4F0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2659,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A488E76A-F73B-45C5-9E59-E6F028E134D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A488E76A-F73B-45C5-9E59-E6F028E134D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C554F814-3E64-472F-BC7F-9B528A511C8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C554F814-3E64-472F-BC7F-9B528A511C8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2775,7 @@
         <xdr:cNvPr id="17" name="テキスト ボックス 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5964CD-CBC2-43E3-931C-AD40AEDEA855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5964CD-CBC2-43E3-931C-AD40AEDEA855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D4D34C-D269-46F4-94E9-0A28166974C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50D4D34C-D269-46F4-94E9-0A28166974C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,7 +2900,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2041D7CA-7C7E-4212-AD5C-B3C8C1FC5551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2041D7CA-7C7E-4212-AD5C-B3C8C1FC5551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2958,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D887D99-F561-475A-9CC6-5FF8E1771B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D887D99-F561-475A-9CC6-5FF8E1771B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3016,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C178229-A100-4099-B3AF-B5D5B373A58F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C178229-A100-4099-B3AF-B5D5B373A58F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +3076,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E0484-4E0A-432B-ABFF-D3F8E5FC970C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E78E0484-4E0A-432B-ABFF-D3F8E5FC970C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3126,6 +3126,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>207264</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>36671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3136900"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>344078</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14708909"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3398,38 +3474,38 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3448,28 +3524,28 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3484,61 +3560,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
         <f>ROW()-12</f>
         <v>1</v>
@@ -3567,7 +3643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="13">
         <f t="shared" ref="B14:B33" si="0">ROW()-12</f>
         <v>2</v>
@@ -3582,7 +3658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3597,7 +3673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3612,7 +3688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3627,7 +3703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3642,7 +3718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3657,7 +3733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3672,7 +3748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3687,7 +3763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3702,7 +3778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3717,7 +3793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3732,7 +3808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3747,7 +3823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3762,7 +3838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3777,7 +3853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3792,7 +3868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B29" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3807,7 +3883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3825,7 +3901,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3843,7 +3919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3861,7 +3937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B33" s="19">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3879,7 +3955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>92</v>
       </c>
@@ -3890,7 +3966,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -3898,7 +3974,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>16</v>
       </c>
@@ -3912,7 +3988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <f>ROW()-36</f>
         <v>2</v>
@@ -3927,7 +4003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <f t="shared" ref="B39:B44" si="1">ROW()-36</f>
         <v>3</v>
@@ -3942,7 +4018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3960,7 +4036,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3978,7 +4054,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3993,7 +4069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4008,7 +4084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4023,7 +4099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" s="13">
         <f>ROW()-36</f>
         <v>9</v>
@@ -4038,7 +4114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -4046,7 +4122,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>93</v>
       </c>
@@ -4057,7 +4133,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>83</v>
       </c>
@@ -4067,7 +4143,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="14"/>
       <c r="C49" s="15" t="s">
         <v>84</v>
@@ -4077,7 +4153,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
@@ -4085,7 +4161,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
         <v>85</v>
       </c>
@@ -4095,7 +4171,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -4103,7 +4179,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -4114,12 +4190,12 @@
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4133,7 +4209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C57" s="6" t="b">
         <v>1</v>
       </c>
@@ -4147,7 +4223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C58" s="32" t="b">
         <v>0</v>
       </c>
@@ -4161,7 +4237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C59" s="32"/>
       <c r="D59" s="32" t="b">
         <v>0</v>
@@ -4173,7 +4249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="6" t="b">
@@ -4183,7 +4259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C61" s="32"/>
       <c r="D61" s="1" t="s">
         <v>53</v>
@@ -4191,7 +4267,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C62" s="32"/>
       <c r="D62" s="6" t="b">
         <v>1</v>
@@ -4203,24 +4279,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C64" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C66" s="16"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B68" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="16"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>115</v>
       </c>
@@ -4231,7 +4307,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
         <v>116</v>
@@ -4242,7 +4318,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24" t="s">
@@ -4253,7 +4329,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="23"/>
       <c r="C73" s="24"/>
@@ -4262,7 +4338,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>118</v>
       </c>
@@ -4273,7 +4349,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="16" t="s">
         <v>119</v>
@@ -4284,7 +4360,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
@@ -4310,24 +4386,24 @@
       <selection activeCell="D11" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.36328125" style="5" customWidth="1"/>
     <col min="6" max="6" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
@@ -4347,7 +4423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>81</v>
       </c>
@@ -4367,7 +4443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4378,31 +4454,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="16" customWidth="1"/>
     <col min="2" max="3" width="9" style="16"/>
-    <col min="4" max="4" width="12.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
         <v>99</v>
@@ -4411,7 +4487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" s="21" t="s">
         <v>97</v>
       </c>
@@ -4422,7 +4498,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" s="21" t="s">
         <v>98</v>
       </c>
@@ -4448,16 +4524,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>121</v>
       </c>
@@ -4475,7 +4551,7 @@
       </c>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -4487,7 +4563,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="65" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
         <v>131</v>
       </c>
@@ -4507,7 +4583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B5" s="28"/>
       <c r="C5" s="17">
         <v>12</v>
@@ -4525,7 +4601,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="65" x14ac:dyDescent="0.2">
       <c r="B6" s="28"/>
       <c r="C6" s="27">
         <v>13</v>
@@ -4543,7 +4619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="65" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="17">
         <v>14</v>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>コーヒーチケット集計</t>
     <rPh sb="8" eb="10">
@@ -1169,30 +1169,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドルチェグスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バリスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケット消費数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー月額料金</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～枚</t>
-    <rPh sb="1" eb="2">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1277,26 +1254,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果表示</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面イメージ</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1622,11 +1579,113 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>改訂E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五回レビュー指摘対応</t>
+    <rPh sb="0" eb="2">
+      <t>ダイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+検索に(*4)追記。
+</t>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)検索実行中は「ローディング中」と表示する。(改定E-1)</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー外変更</t>
+    <rPh sb="4" eb="5">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[簡易イメージ]
+イメージの差し替え
+</t>
+    <rPh sb="1" eb="3">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[簡易イメージ]
+イメージの差し替え
+</t>
+    <rPh sb="1" eb="3">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ(改訂F-1)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1805,7 +1864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1869,12 +1928,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,6 +1964,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1930,86 +1986,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{719ECE18-4DD7-40AB-894C-67ADCAC7676B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1428750" y="876300"/>
-          <a:ext cx="5857875" cy="2066925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1409700" cy="275717"/>
+    <xdr:ext cx="1409700" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32A94D67-37F1-4553-95E5-7069554DEB91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,76 +2007,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457325" y="962025"/>
-          <a:ext cx="1409700" cy="275717"/>
+          <a:off x="1471180" y="865909"/>
+          <a:ext cx="1409700" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コーヒーチケット集計</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="581025" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{752CB794-91D5-44A1-A41F-525877DA2493}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1771650" y="2371725"/>
-          <a:ext cx="581025" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -2114,1034 +2041,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17AC41AE-04BE-44DC-8FED-4DF5506EA9D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2609850" y="2371725"/>
-          <a:ext cx="304800" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="581025" cy="255035"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66BFFC0F-AA84-4291-A9CF-F73DA02BB713}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4429125" y="2371724"/>
-          <a:ext cx="581025" cy="255035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{707329D9-0F6F-4816-BACA-19D845B5E17A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248025" y="2362200"/>
-          <a:ext cx="304800" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9FB1DD5-ABC3-404B-AF7B-D5C685208B53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5295900" y="2371725"/>
-          <a:ext cx="304800" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DCD3181-4785-4A8E-B486-408FAA1B8ABF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5915025" y="2362200"/>
-          <a:ext cx="304800" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E1CC763-824C-4FF5-B6A0-9B4A8103C0ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2905125" y="2362200"/>
-          <a:ext cx="325730" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E88EE5E-3D79-45F1-BB0C-468B68D49298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5610225" y="2362200"/>
-          <a:ext cx="325730" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6212FC67-1838-45F0-91D3-330A509924F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4981575" y="2390775"/>
-          <a:ext cx="325730" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34321D9F-A99C-4822-BD47-57BC90AC4F0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2305050" y="2371725"/>
-          <a:ext cx="325730" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A488E76A-F73B-45C5-9E59-E6F028E134D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3533775" y="2362200"/>
-          <a:ext cx="276225" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="266192"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C554F814-3E64-472F-BC7F-9B528A511C8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6248400" y="2362200"/>
-          <a:ext cx="276225" cy="266192"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5964CD-CBC2-43E3-931C-AD40AEDEA855}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3905250" y="2381250"/>
-          <a:ext cx="304800" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>～</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50D4D34C-D269-46F4-94E9-0A28166974C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="2362200"/>
-          <a:ext cx="485775" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>検索</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2041D7CA-7C7E-4212-AD5C-B3C8C1FC5551}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5343525" y="1019175"/>
-          <a:ext cx="1172116" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今月度使用料金</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1626727" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D887D99-F561-475A-9CC6-5FF8E1771B53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5343525" y="1476375"/>
-          <a:ext cx="1626727" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今月度使用チケット枚数</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="790575" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C178229-A100-4099-B3AF-B5D5B373A58F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="1247775"/>
-          <a:ext cx="790575" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>\999,999</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="790575" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E78E0484-4E0A-432B-ABFF-D3F8E5FC970C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="1714500"/>
-          <a:ext cx="790575" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>99999</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>枚</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>207264</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>36671</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>36670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3168,18 +2089,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>344078</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>114025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3474,38 +2401,38 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3524,28 +2451,28 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3558,63 +2485,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
@@ -3628,7 +2555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="13">
         <f>ROW()-12</f>
         <v>1</v>
@@ -3643,7 +2570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="13">
         <f t="shared" ref="B14:B33" si="0">ROW()-12</f>
         <v>2</v>
@@ -3658,7 +2585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3673,7 +2600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3688,7 +2615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3703,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3718,7 +2645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3733,7 +2660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3748,7 +2675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3763,7 +2690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3778,7 +2705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3793,7 +2720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3808,7 +2735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3823,7 +2750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3838,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3853,7 +2780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3868,7 +2795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B29" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3883,79 +2810,79 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="F31" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="F32" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" s="19">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>92</v>
       </c>
@@ -3966,7 +2893,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -3974,7 +2901,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +2915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B38" s="13">
         <f>ROW()-36</f>
         <v>2</v>
@@ -4003,13 +2930,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B39" s="13">
         <f t="shared" ref="B39:B44" si="1">ROW()-36</f>
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>26</v>
@@ -4018,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B40" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4033,10 +2960,10 @@
         <v>23</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B41" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4051,10 +2978,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4069,7 +2996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4084,7 +3011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4099,7 +3026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B45" s="13">
         <f>ROW()-36</f>
         <v>9</v>
@@ -4114,7 +3041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -4122,7 +3049,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>93</v>
       </c>
@@ -4133,7 +3060,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
         <v>83</v>
       </c>
@@ -4143,7 +3070,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B49" s="14"/>
       <c r="C49" s="15" t="s">
         <v>84</v>
@@ -4153,7 +3080,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
@@ -4161,7 +3088,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51" s="5" t="s">
         <v>85</v>
       </c>
@@ -4171,7 +3098,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -4179,7 +3106,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -4190,12 +3117,12 @@
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4209,7 +3136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C57" s="6" t="b">
         <v>1</v>
       </c>
@@ -4223,8 +3150,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="32" t="b">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C58" s="30" t="b">
         <v>0</v>
       </c>
       <c r="D58" s="6" t="b">
@@ -4237,9 +3164,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="32"/>
-      <c r="D59" s="32" t="b">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C59" s="30"/>
+      <c r="D59" s="30" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="6" t="b">
@@ -4249,9 +3176,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="6" t="b">
         <v>0</v>
       </c>
@@ -4259,16 +3186,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C61" s="32"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C61" s="30"/>
       <c r="D61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C62" s="32"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C62" s="30"/>
       <c r="D62" s="6" t="b">
         <v>1</v>
       </c>
@@ -4279,92 +3206,98 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C64" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B66" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C66" s="16"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C68" s="16"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="16"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="21"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
-      <c r="B75" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="24"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16" t="s">
-        <v>120</v>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4386,24 +3319,24 @@
       <selection activeCell="D11" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
@@ -4423,7 +3356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>81</v>
       </c>
@@ -4443,7 +3376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,61 +3385,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" customWidth="1"/>
     <col min="2" max="3" width="9" style="16"/>
-    <col min="4" max="4" width="12.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4518,123 +3413,163 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="25">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="E4" s="27">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="17" t="s">
+      <c r="G4" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="65" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="27">
-        <v>11</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="91" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+    </row>
+    <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
       <c r="C5" s="17">
         <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="27">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="27">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="65" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="27">
-        <v>13</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="65" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
+    </row>
+    <row r="7" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="25"/>
       <c r="C7" s="17">
         <v>14</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="29">
+        <v>121</v>
+      </c>
+      <c r="E7" s="27">
         <v>42859</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>136</v>
+    </row>
+    <row r="8" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="27">
+        <v>42926</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="27">
+        <v>42935</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4643,5 +3578,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/03_コーヒーチケット集計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="150">
   <si>
     <t>コーヒーチケット集計</t>
     <rPh sb="8" eb="10">
@@ -1155,16 +1155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー月額料金</t>
-    <rPh sb="4" eb="6">
-      <t>ゲツガク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドルチェグスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1678,6 +1668,73 @@
     <t>画面イメージ(改訂F-1)</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂漏れ</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+ユーザー月額料金
+</t>
+    <rPh sb="9" eb="11">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット集計]
+ユーザー使用料金
+→今月の料金と同義となってしまうので、誤記修正。
+</t>
+    <rPh sb="9" eb="11">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウギ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー使用料金(改訂G-1)</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1955,6 +2012,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1963,9 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2487,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2538,7 +2595,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2816,16 +2873,16 @@
         <v>18</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="E30" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
@@ -2834,16 +2891,16 @@
         <v>19</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
@@ -2852,16 +2909,16 @@
         <v>20</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2870,16 +2927,16 @@
         <v>21</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2921,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>26</v>
@@ -2936,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>26</v>
@@ -2960,7 +3017,7 @@
         <v>23</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2968,8 +3025,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>95</v>
+      <c r="C41" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>25</v>
@@ -2978,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -3151,7 +3208,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C58" s="30" t="b">
+      <c r="C58" s="31" t="b">
         <v>0</v>
       </c>
       <c r="D58" s="6" t="b">
@@ -3165,8 +3222,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C59" s="30"/>
-      <c r="D59" s="30" t="b">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="6" t="b">
@@ -3177,8 +3234,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="6" t="b">
         <v>0</v>
       </c>
@@ -3187,7 +3244,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C61" s="30"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3195,7 +3252,7 @@
       <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="6" t="b">
         <v>1</v>
       </c>
@@ -3213,25 +3270,25 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B66" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B70" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3243,7 +3300,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
       <c r="B74" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="14"/>
@@ -3255,7 +3312,7 @@
       <c r="A75" s="16"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
@@ -3273,7 +3330,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3285,7 +3342,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="14"/>
@@ -3297,7 +3354,7 @@
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3458,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3413,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3430,21 +3487,21 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="25"/>
@@ -3452,30 +3509,30 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="25">
         <v>11</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="27">
         <v>42859</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -3484,16 +3541,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="27">
         <v>42859</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3502,16 +3559,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="27">
         <v>42859</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3520,56 +3577,76 @@
         <v>14</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="27">
         <v>42859</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
-        <v>137</v>
+      <c r="B8" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="27">
         <v>42926</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
-        <v>141</v>
+      <c r="B9" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="25">
         <v>1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="27">
         <v>42935</v>
       </c>
       <c r="F9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>144</v>
+    </row>
+    <row r="10" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="27">
+        <v>42937</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
